--- a/testit2.xlsx
+++ b/testit2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marku\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EA931D6-642E-4E8B-AA52-716002510C22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{493E9CD4-A25E-4415-9F9A-5E4F56CB54C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27645" yWindow="1080" windowWidth="25860" windowHeight="12390" tabRatio="618" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24180" yWindow="6330" windowWidth="21600" windowHeight="11385" tabRatio="618" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="G1" sheetId="9" r:id="rId1"/>
@@ -79,11 +79,6 @@
     <t>t1</t>
   </si>
   <si>
-    <t>do this
-do that
-and this and that</t>
-  </si>
-  <si>
     <t>P</t>
   </si>
   <si>
@@ -104,6 +99,11 @@
   </si>
   <si>
     <t>f</t>
+  </si>
+  <si>
+    <t>* do this
+* do that
+* and this and that</t>
   </si>
 </sst>
 </file>
@@ -459,7 +459,7 @@
   <dimension ref="B3:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -476,7 +476,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>1</v>
@@ -485,7 +485,7 @@
         <v>2</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>3</v>
@@ -514,13 +514,13 @@
         <v>11</v>
       </c>
       <c r="G4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="45" x14ac:dyDescent="0.25">
@@ -536,10 +536,10 @@
         <v>11</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I5" s="1"/>
     </row>
@@ -556,16 +556,16 @@
         <v>12</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>7</v>
@@ -580,13 +580,13 @@
         <v>11</v>
       </c>
       <c r="G7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="I7" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
